--- a/Excel-XLSX/UN-KAZ.xlsx
+++ b/Excel-XLSX/UN-KAZ.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="447">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>SQpD1d</t>
+    <t>O1akuu</t>
   </si>
   <si>
     <t>1993</t>
@@ -408,762 +408,774 @@
     <t>2023</t>
   </si>
   <si>
-    <t>279</t>
+    <t>182</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>ALG</t>
+  </si>
+  <si>
+    <t>DZA</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>AZE</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>BSN</t>
+  </si>
+  <si>
+    <t>BIH</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>CHI</t>
+  </si>
+  <si>
+    <t>CHN</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>COB</t>
+  </si>
+  <si>
+    <t>COG</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>ETH</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>Palestinian</t>
+  </si>
+  <si>
+    <t>GAZ</t>
+  </si>
+  <si>
+    <t>PSE</t>
+  </si>
+  <si>
+    <t>351</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>1150</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>1149</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>GEO</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>Iran (Islamic Rep. of)</t>
+  </si>
+  <si>
+    <t>IRN</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>IRQ</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>ISR</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>KGZ</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>Lao People's Dem. Rep.</t>
+  </si>
+  <si>
+    <t>LAO</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>Rep. of Moldova</t>
+  </si>
+  <si>
+    <t>MDA</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>PAK</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>RUS</t>
+  </si>
+  <si>
+    <t>6000</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>548</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>532</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>7043</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>12671</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>11895</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>13695</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>13684</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>3713</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>3692</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>3682</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>3675</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>RWA</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>SAU</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>SLE</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>SOM</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>Syrian Arab Rep.</t>
+  </si>
+  <si>
+    <t>SYR</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>TJK</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>440</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>5637</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>5355</t>
+  </si>
+  <si>
+    <t>492</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>4982</t>
+  </si>
+  <si>
+    <t>377</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>4105</t>
+  </si>
+  <si>
+    <t>877</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>3477</t>
+  </si>
+  <si>
+    <t>628</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>1454</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>1446</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>Türkiye</t>
+  </si>
+  <si>
+    <t>TUR</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>UKR</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>550</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>UZB</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>205</t>
   </si>
   <si>
     <t>206</t>
   </si>
   <si>
-    <t>Algeria</t>
-  </si>
-  <si>
-    <t>ALG</t>
-  </si>
-  <si>
-    <t>DZA</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>Azerbaijan</t>
-  </si>
-  <si>
-    <t>AZE</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>Bosnia and Herzegovina</t>
-  </si>
-  <si>
-    <t>BSN</t>
-  </si>
-  <si>
-    <t>BIH</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>CHI</t>
-  </si>
-  <si>
-    <t>CHN</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>Ethiopia</t>
-  </si>
-  <si>
-    <t>ETH</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>Palestinian</t>
-  </si>
-  <si>
-    <t>GAZ</t>
-  </si>
-  <si>
-    <t>PSE</t>
-  </si>
-  <si>
-    <t>351</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>1150</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>1149</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>GEO</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>IND</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>Iran (Islamic Rep. of)</t>
-  </si>
-  <si>
-    <t>IRN</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>Iraq</t>
-  </si>
-  <si>
-    <t>IRQ</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>Kyrgyzstan</t>
-  </si>
-  <si>
-    <t>KGZ</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>Lao People's Dem. Rep.</t>
-  </si>
-  <si>
-    <t>LAO</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>Rep. of Moldova</t>
-  </si>
-  <si>
-    <t>MDA</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>PAK</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>Russian Federation</t>
-  </si>
-  <si>
-    <t>RUS</t>
-  </si>
-  <si>
-    <t>6000</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>548</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>532</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>7043</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>12671</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>11895</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>13695</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>13684</t>
-  </si>
-  <si>
-    <t>129</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>5000</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>3713</t>
-  </si>
-  <si>
-    <t>132</t>
-  </si>
-  <si>
-    <t>3692</t>
-  </si>
-  <si>
-    <t>133</t>
-  </si>
-  <si>
-    <t>134</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>136</t>
-  </si>
-  <si>
-    <t>3682</t>
-  </si>
-  <si>
-    <t>137</t>
-  </si>
-  <si>
-    <t>3675</t>
-  </si>
-  <si>
-    <t>138</t>
-  </si>
-  <si>
-    <t>139</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>141</t>
-  </si>
-  <si>
-    <t>161</t>
-  </si>
-  <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
-    <t>RWA</t>
-  </si>
-  <si>
-    <t>142</t>
-  </si>
-  <si>
-    <t>143</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>145</t>
-  </si>
-  <si>
-    <t>163</t>
-  </si>
-  <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
-    <t>SAU</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
-    <t>169</t>
-  </si>
-  <si>
-    <t>Sierra Leone</t>
-  </si>
-  <si>
-    <t>SLE</t>
-  </si>
-  <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>149</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>151</t>
-  </si>
-  <si>
-    <t>172</t>
-  </si>
-  <si>
-    <t>Somalia</t>
-  </si>
-  <si>
-    <t>SOM</t>
-  </si>
-  <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>185</t>
-  </si>
-  <si>
-    <t>Syrian Arab Rep.</t>
-  </si>
-  <si>
-    <t>SYR</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>154</t>
-  </si>
-  <si>
-    <t>155</t>
-  </si>
-  <si>
-    <t>156</t>
-  </si>
-  <si>
-    <t>157</t>
-  </si>
-  <si>
-    <t>158</t>
-  </si>
-  <si>
-    <t>159</t>
-  </si>
-  <si>
-    <t>162</t>
-  </si>
-  <si>
-    <t>165</t>
-  </si>
-  <si>
-    <t>166</t>
-  </si>
-  <si>
-    <t>167</t>
-  </si>
-  <si>
-    <t>168</t>
-  </si>
-  <si>
-    <t>189</t>
-  </si>
-  <si>
-    <t>Tajikistan</t>
-  </si>
-  <si>
-    <t>TJK</t>
-  </si>
-  <si>
-    <t>3000</t>
-  </si>
-  <si>
-    <t>170</t>
-  </si>
-  <si>
-    <t>171</t>
-  </si>
-  <si>
-    <t>440</t>
-  </si>
-  <si>
-    <t>173</t>
-  </si>
-  <si>
-    <t>5637</t>
-  </si>
-  <si>
-    <t>174</t>
-  </si>
-  <si>
-    <t>5355</t>
-  </si>
-  <si>
-    <t>492</t>
-  </si>
-  <si>
-    <t>175</t>
-  </si>
-  <si>
-    <t>4982</t>
-  </si>
-  <si>
-    <t>377</t>
-  </si>
-  <si>
-    <t>176</t>
-  </si>
-  <si>
-    <t>4105</t>
-  </si>
-  <si>
-    <t>877</t>
-  </si>
-  <si>
-    <t>177</t>
-  </si>
-  <si>
-    <t>3477</t>
-  </si>
-  <si>
-    <t>628</t>
-  </si>
-  <si>
-    <t>178</t>
-  </si>
-  <si>
-    <t>1454</t>
-  </si>
-  <si>
-    <t>179</t>
-  </si>
-  <si>
-    <t>1446</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>182</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>Türkiye</t>
-  </si>
-  <si>
-    <t>TUR</t>
-  </si>
-  <si>
-    <t>183</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
-    <t>UKR</t>
-  </si>
-  <si>
-    <t>184</t>
-  </si>
-  <si>
-    <t>186</t>
-  </si>
-  <si>
-    <t>550</t>
-  </si>
-  <si>
-    <t>187</t>
-  </si>
-  <si>
-    <t>369</t>
-  </si>
-  <si>
-    <t>188</t>
-  </si>
-  <si>
-    <t>203</t>
-  </si>
-  <si>
-    <t>Uzbekistan</t>
-  </si>
-  <si>
-    <t>UZB</t>
-  </si>
-  <si>
-    <t>190</t>
-  </si>
-  <si>
-    <t>191</t>
-  </si>
-  <si>
-    <t>192</t>
-  </si>
-  <si>
-    <t>193</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>221</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>199</t>
-  </si>
-  <si>
-    <t>201</t>
-  </si>
-  <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t>204</t>
-  </si>
-  <si>
-    <t>205</t>
-  </si>
-  <si>
-    <t>207</t>
-  </si>
-  <si>
     <t>208</t>
   </si>
   <si>
@@ -1176,9 +1188,6 @@
     <t>YEM</t>
   </si>
   <si>
-    <t>209</t>
-  </si>
-  <si>
     <t>216</t>
   </si>
   <si>
@@ -1320,7 +1329,7 @@
     <t>232</t>
   </si>
   <si>
-    <t>8266</t>
+    <t>7892</t>
   </si>
   <si>
     <t>233</t>
@@ -1342,6 +1351,12 @@
   </si>
   <si>
     <t>12846</t>
+  </si>
+  <si>
+    <t>236</t>
+  </si>
+  <si>
+    <t>42412</t>
   </si>
 </sst>
 </file>
@@ -1726,7 +1741,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V236"/>
+  <dimension ref="A1:V237"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1866,8 +1881,8 @@
       <c r="U2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>33</v>
+      <c r="V2" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -1934,8 +1949,8 @@
       <c r="U3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>33</v>
+      <c r="V3" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -2002,8 +2017,8 @@
       <c r="U4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>33</v>
+      <c r="V4" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -2070,8 +2085,8 @@
       <c r="U5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>33</v>
+      <c r="V5" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6">
@@ -2138,8 +2153,8 @@
       <c r="U6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>33</v>
+      <c r="V6" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7">
@@ -2206,8 +2221,8 @@
       <c r="U7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>33</v>
+      <c r="V7" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8">
@@ -2274,8 +2289,8 @@
       <c r="U8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>33</v>
+      <c r="V8" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9">
@@ -2342,8 +2357,8 @@
       <c r="U9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V9" s="1" t="s">
-        <v>33</v>
+      <c r="V9" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10">
@@ -2410,8 +2425,8 @@
       <c r="U10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V10" s="1" t="s">
-        <v>33</v>
+      <c r="V10" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11">
@@ -2478,8 +2493,8 @@
       <c r="U11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V11" s="1" t="s">
-        <v>33</v>
+      <c r="V11" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="12">
@@ -2546,8 +2561,8 @@
       <c r="U12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V12" s="1" t="s">
-        <v>33</v>
+      <c r="V12" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13">
@@ -2614,8 +2629,8 @@
       <c r="U13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V13" s="1" t="s">
-        <v>33</v>
+      <c r="V13" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14">
@@ -2682,8 +2697,8 @@
       <c r="U14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V14" s="1" t="s">
-        <v>33</v>
+      <c r="V14" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15">
@@ -2750,8 +2765,8 @@
       <c r="U15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V15" s="1" t="s">
-        <v>33</v>
+      <c r="V15" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="16">
@@ -2818,8 +2833,8 @@
       <c r="U16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V16" s="1" t="s">
-        <v>33</v>
+      <c r="V16" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17">
@@ -2886,8 +2901,8 @@
       <c r="U17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V17" s="1" t="s">
-        <v>33</v>
+      <c r="V17" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="18">
@@ -2954,8 +2969,8 @@
       <c r="U18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V18" s="1" t="s">
-        <v>33</v>
+      <c r="V18" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19">
@@ -3022,8 +3037,8 @@
       <c r="U19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V19" s="1" t="s">
-        <v>33</v>
+      <c r="V19" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="20">
@@ -3090,8 +3105,8 @@
       <c r="U20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V20" s="1" t="s">
-        <v>33</v>
+      <c r="V20" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="21">
@@ -3158,8 +3173,8 @@
       <c r="U21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V21" s="1" t="s">
-        <v>33</v>
+      <c r="V21" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="22">
@@ -3226,8 +3241,8 @@
       <c r="U22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V22" s="1" t="s">
-        <v>33</v>
+      <c r="V22" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="23">
@@ -3294,8 +3309,8 @@
       <c r="U23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V23" s="1" t="s">
-        <v>33</v>
+      <c r="V23" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="24">
@@ -3362,8 +3377,8 @@
       <c r="U24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V24" s="1" t="s">
-        <v>33</v>
+      <c r="V24" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="25">
@@ -3430,8 +3445,8 @@
       <c r="U25" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V25" s="1" t="s">
-        <v>33</v>
+      <c r="V25" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="26">
@@ -3498,8 +3513,8 @@
       <c r="U26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V26" s="1" t="s">
-        <v>33</v>
+      <c r="V26" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="27">
@@ -3566,8 +3581,8 @@
       <c r="U27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V27" s="1" t="s">
-        <v>33</v>
+      <c r="V27" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="28">
@@ -3634,8 +3649,8 @@
       <c r="U28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V28" s="1" t="s">
-        <v>33</v>
+      <c r="V28" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="29">
@@ -3702,8 +3717,8 @@
       <c r="U29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V29" s="1" t="s">
-        <v>33</v>
+      <c r="V29" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="30">
@@ -3770,8 +3785,8 @@
       <c r="U30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V30" s="1" t="s">
-        <v>33</v>
+      <c r="V30" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="31">
@@ -3974,8 +3989,8 @@
       <c r="U33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V33" s="1" t="s">
-        <v>33</v>
+      <c r="V33" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="34">
@@ -4042,8 +4057,8 @@
       <c r="U34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V34" s="1" t="s">
-        <v>33</v>
+      <c r="V34" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="35">
@@ -4110,8 +4125,8 @@
       <c r="U35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V35" s="1" t="s">
-        <v>33</v>
+      <c r="V35" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="36">
@@ -4178,8 +4193,8 @@
       <c r="U36" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V36" s="1" t="s">
-        <v>33</v>
+      <c r="V36" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="37">
@@ -4246,8 +4261,8 @@
       <c r="U37" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V37" s="1" t="s">
-        <v>33</v>
+      <c r="V37" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="38">
@@ -4314,8 +4329,8 @@
       <c r="U38" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V38" s="1" t="s">
-        <v>33</v>
+      <c r="V38" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="39">
@@ -4382,8 +4397,8 @@
       <c r="U39" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V39" s="1" t="s">
-        <v>33</v>
+      <c r="V39" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="40">
@@ -4450,8 +4465,8 @@
       <c r="U40" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V40" s="1" t="s">
-        <v>33</v>
+      <c r="V40" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="41">
@@ -4518,8 +4533,8 @@
       <c r="U41" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V41" s="1" t="s">
-        <v>33</v>
+      <c r="V41" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="42">
@@ -4586,8 +4601,8 @@
       <c r="U42" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V42" s="1" t="s">
-        <v>33</v>
+      <c r="V42" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="43">
@@ -4654,8 +4669,8 @@
       <c r="U43" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V43" s="1" t="s">
-        <v>33</v>
+      <c r="V43" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="44">
@@ -4722,8 +4737,8 @@
       <c r="U44" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V44" s="1" t="s">
-        <v>33</v>
+      <c r="V44" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="45">
@@ -4790,8 +4805,8 @@
       <c r="U45" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V45" s="1" t="s">
-        <v>33</v>
+      <c r="V45" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="46">
@@ -4858,8 +4873,8 @@
       <c r="U46" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V46" s="1" t="s">
-        <v>33</v>
+      <c r="V46" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="47">
@@ -4926,8 +4941,8 @@
       <c r="U47" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V47" s="1" t="s">
-        <v>33</v>
+      <c r="V47" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="48">
@@ -4994,8 +5009,8 @@
       <c r="U48" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V48" s="1" t="s">
-        <v>33</v>
+      <c r="V48" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="49">
@@ -5062,8 +5077,8 @@
       <c r="U49" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V49" s="1" t="s">
-        <v>33</v>
+      <c r="V49" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="50">
@@ -5130,8 +5145,8 @@
       <c r="U50" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V50" s="1" t="s">
-        <v>33</v>
+      <c r="V50" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="51">
@@ -5198,8 +5213,8 @@
       <c r="U51" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V51" s="1" t="s">
-        <v>33</v>
+      <c r="V51" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="52">
@@ -5266,8 +5281,8 @@
       <c r="U52" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V52" s="1" t="s">
-        <v>33</v>
+      <c r="V52" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="53">
@@ -5334,8 +5349,8 @@
       <c r="U53" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V53" s="1" t="s">
-        <v>33</v>
+      <c r="V53" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="54">
@@ -5402,8 +5417,8 @@
       <c r="U54" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V54" s="1" t="s">
-        <v>33</v>
+      <c r="V54" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="55">
@@ -5470,8 +5485,8 @@
       <c r="U55" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V55" s="1" t="s">
-        <v>33</v>
+      <c r="V55" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="56">
@@ -5538,8 +5553,8 @@
       <c r="U56" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V56" s="1" t="s">
-        <v>33</v>
+      <c r="V56" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="57">
@@ -5606,8 +5621,8 @@
       <c r="U57" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V57" s="1" t="s">
-        <v>33</v>
+      <c r="V57" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="58">
@@ -5674,8 +5689,8 @@
       <c r="U58" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V58" s="1" t="s">
-        <v>33</v>
+      <c r="V58" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="59">
@@ -5742,8 +5757,8 @@
       <c r="U59" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V59" s="1" t="s">
-        <v>33</v>
+      <c r="V59" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="60">
@@ -5810,8 +5825,8 @@
       <c r="U60" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V60" s="1" t="s">
-        <v>33</v>
+      <c r="V60" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="61">
@@ -5878,8 +5893,8 @@
       <c r="U61" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V61" s="1" t="s">
-        <v>33</v>
+      <c r="V61" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="62">
@@ -5946,8 +5961,8 @@
       <c r="U62" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V62" s="1" t="s">
-        <v>33</v>
+      <c r="V62" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="63">
@@ -6014,8 +6029,8 @@
       <c r="U63" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V63" s="1" t="s">
-        <v>33</v>
+      <c r="V63" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="64">
@@ -6082,8 +6097,8 @@
       <c r="U64" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V64" s="1" t="s">
-        <v>33</v>
+      <c r="V64" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="65">
@@ -6150,8 +6165,8 @@
       <c r="U65" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V65" s="1" t="s">
-        <v>33</v>
+      <c r="V65" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="66">
@@ -6218,8 +6233,8 @@
       <c r="U66" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V66" s="1" t="s">
-        <v>33</v>
+      <c r="V66" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="67">
@@ -6372,10 +6387,10 @@
         <v>174</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>52</v>
+        <v>129</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>175</v>
@@ -6384,7 +6399,7 @@
         <v>176</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J69" s="2" t="s">
         <v>28</v>
@@ -6399,11 +6414,11 @@
         <v>30</v>
       </c>
       <c r="N69" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O69" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="O69" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="P69" s="2" t="s">
         <v>32</v>
       </c>
@@ -6422,8 +6437,8 @@
       <c r="U69" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V69" s="1" t="s">
-        <v>33</v>
+      <c r="V69" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="70">
@@ -6437,22 +6452,22 @@
         <v>22</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>164</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>28</v>
@@ -6490,8 +6505,8 @@
       <c r="U70" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V70" s="1" t="s">
-        <v>33</v>
+      <c r="V70" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="71">
@@ -6505,22 +6520,22 @@
         <v>22</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>164</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>28</v>
@@ -6558,8 +6573,8 @@
       <c r="U71" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V71" s="1" t="s">
-        <v>33</v>
+      <c r="V71" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="72">
@@ -6573,22 +6588,22 @@
         <v>22</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>164</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="J72" s="2" t="s">
         <v>28</v>
@@ -6626,8 +6641,8 @@
       <c r="U72" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V72" s="1" t="s">
-        <v>33</v>
+      <c r="V72" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="73">
@@ -6641,22 +6656,22 @@
         <v>22</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>164</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="J73" s="2" t="s">
         <v>28</v>
@@ -6694,8 +6709,8 @@
       <c r="U73" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V73" s="1" t="s">
-        <v>33</v>
+      <c r="V73" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="74">
@@ -6709,22 +6724,22 @@
         <v>22</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="J74" s="2" t="s">
         <v>28</v>
@@ -6739,7 +6754,7 @@
         <v>30</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>185</v>
+        <v>40</v>
       </c>
       <c r="O74" s="2" t="s">
         <v>32</v>
@@ -6762,8 +6777,8 @@
       <c r="U74" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V74" s="1" t="s">
-        <v>33</v>
+      <c r="V74" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="75">
@@ -6777,22 +6792,22 @@
         <v>22</v>
       </c>
       <c r="D75" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G75" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E75" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>182</v>
-      </c>
       <c r="H75" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="J75" s="2" t="s">
         <v>28</v>
@@ -6807,7 +6822,7 @@
         <v>30</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O75" s="2" t="s">
         <v>32</v>
@@ -6830,8 +6845,8 @@
       <c r="U75" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V75" s="1" t="s">
-        <v>33</v>
+      <c r="V75" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="76">
@@ -6845,23 +6860,23 @@
         <v>22</v>
       </c>
       <c r="D76" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I76" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E76" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>184</v>
-      </c>
       <c r="J76" s="2" t="s">
         <v>28</v>
       </c>
@@ -6875,7 +6890,7 @@
         <v>30</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="O76" s="2" t="s">
         <v>32</v>
@@ -6898,8 +6913,8 @@
       <c r="U76" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V76" s="1" t="s">
-        <v>33</v>
+      <c r="V76" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="77">
@@ -6913,22 +6928,22 @@
         <v>22</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="J77" s="2" t="s">
         <v>28</v>
@@ -6943,7 +6958,7 @@
         <v>30</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>58</v>
+        <v>193</v>
       </c>
       <c r="O77" s="2" t="s">
         <v>32</v>
@@ -6966,8 +6981,8 @@
       <c r="U77" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V77" s="1" t="s">
-        <v>33</v>
+      <c r="V77" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="78">
@@ -6981,22 +6996,22 @@
         <v>22</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="J78" s="2" t="s">
         <v>28</v>
@@ -7034,8 +7049,8 @@
       <c r="U78" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V78" s="1" t="s">
-        <v>33</v>
+      <c r="V78" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="79">
@@ -7049,22 +7064,22 @@
         <v>22</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="J79" s="2" t="s">
         <v>28</v>
@@ -7079,10 +7094,10 @@
         <v>30</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="O79" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P79" s="2" t="s">
         <v>32</v>
@@ -7102,8 +7117,8 @@
       <c r="U79" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V79" s="1" t="s">
-        <v>33</v>
+      <c r="V79" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="80">
@@ -7117,22 +7132,22 @@
         <v>22</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="J80" s="2" t="s">
         <v>28</v>
@@ -7170,8 +7185,8 @@
       <c r="U80" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V80" s="1" t="s">
-        <v>33</v>
+      <c r="V80" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="81">
@@ -7185,22 +7200,22 @@
         <v>22</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="J81" s="2" t="s">
         <v>28</v>
@@ -7215,10 +7230,10 @@
         <v>30</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="O81" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="P81" s="2" t="s">
         <v>32</v>
@@ -7238,8 +7253,8 @@
       <c r="U81" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V81" s="1" t="s">
-        <v>33</v>
+      <c r="V81" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="82">
@@ -7253,22 +7268,22 @@
         <v>22</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="J82" s="2" t="s">
         <v>28</v>
@@ -7283,7 +7298,7 @@
         <v>30</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="O82" s="2" t="s">
         <v>32</v>
@@ -7306,8 +7321,8 @@
       <c r="U82" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V82" s="1" t="s">
-        <v>33</v>
+      <c r="V82" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="83">
@@ -7321,22 +7336,22 @@
         <v>22</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="J83" s="2" t="s">
         <v>28</v>
@@ -7374,8 +7389,8 @@
       <c r="U83" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V83" s="1" t="s">
-        <v>33</v>
+      <c r="V83" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="84">
@@ -7389,22 +7404,22 @@
         <v>22</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="J84" s="2" t="s">
         <v>28</v>
@@ -7442,8 +7457,8 @@
       <c r="U84" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V84" s="1" t="s">
-        <v>33</v>
+      <c r="V84" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="85">
@@ -7457,22 +7472,22 @@
         <v>22</v>
       </c>
       <c r="D85" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G85" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E85" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>196</v>
-      </c>
       <c r="H85" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="J85" s="2" t="s">
         <v>28</v>
@@ -7487,7 +7502,7 @@
         <v>30</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="O85" s="2" t="s">
         <v>32</v>
@@ -7510,8 +7525,8 @@
       <c r="U85" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V85" s="1" t="s">
-        <v>33</v>
+      <c r="V85" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="86">
@@ -7525,22 +7540,22 @@
         <v>22</v>
       </c>
       <c r="D86" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H86" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="E86" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="I86" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="J86" s="2" t="s">
         <v>28</v>
@@ -7578,8 +7593,8 @@
       <c r="U86" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V86" s="1" t="s">
-        <v>33</v>
+      <c r="V86" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="87">
@@ -7593,22 +7608,22 @@
         <v>22</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="J87" s="2" t="s">
         <v>28</v>
@@ -7623,7 +7638,7 @@
         <v>30</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="O87" s="2" t="s">
         <v>32</v>
@@ -7646,8 +7661,8 @@
       <c r="U87" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V87" s="1" t="s">
-        <v>33</v>
+      <c r="V87" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="88">
@@ -7664,19 +7679,19 @@
         <v>104</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="J88" s="2" t="s">
         <v>28</v>
@@ -7691,7 +7706,7 @@
         <v>30</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="O88" s="2" t="s">
         <v>32</v>
@@ -7714,8 +7729,8 @@
       <c r="U88" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V88" s="1" t="s">
-        <v>33</v>
+      <c r="V88" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="89">
@@ -7729,22 +7744,22 @@
         <v>22</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="J89" s="2" t="s">
         <v>28</v>
@@ -7782,8 +7797,8 @@
       <c r="U89" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V89" s="1" t="s">
-        <v>33</v>
+      <c r="V89" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="90">
@@ -7797,22 +7812,22 @@
         <v>22</v>
       </c>
       <c r="D90" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="E90" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>203</v>
-      </c>
       <c r="G90" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="J90" s="2" t="s">
         <v>28</v>
@@ -7850,8 +7865,8 @@
       <c r="U90" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V90" s="1" t="s">
-        <v>33</v>
+      <c r="V90" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="91">
@@ -7865,22 +7880,22 @@
         <v>22</v>
       </c>
       <c r="D91" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G91" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E91" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>204</v>
-      </c>
       <c r="H91" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="J91" s="2" t="s">
         <v>28</v>
@@ -7895,7 +7910,7 @@
         <v>30</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O91" s="2" t="s">
         <v>32</v>
@@ -7918,8 +7933,8 @@
       <c r="U91" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V91" s="1" t="s">
-        <v>33</v>
+      <c r="V91" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="92">
@@ -7933,23 +7948,23 @@
         <v>22</v>
       </c>
       <c r="D92" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H92" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="E92" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F92" s="2" t="s">
+      <c r="I92" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="G92" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="I92" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="J92" s="2" t="s">
         <v>28</v>
       </c>
@@ -7963,10 +7978,10 @@
         <v>30</v>
       </c>
       <c r="N92" s="2" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="O92" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="P92" s="2" t="s">
         <v>32</v>
@@ -8001,22 +8016,22 @@
         <v>22</v>
       </c>
       <c r="D93" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F93" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="E93" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>208</v>
-      </c>
       <c r="G93" s="1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="J93" s="2" t="s">
         <v>28</v>
@@ -8069,10 +8084,10 @@
         <v>22</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>41</v>
+        <v>129</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>211</v>
@@ -8099,10 +8114,10 @@
         <v>30</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="O94" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="P94" s="2" t="s">
         <v>32</v>
@@ -8122,8 +8137,8 @@
       <c r="U94" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V94" s="1" t="s">
-        <v>33</v>
+      <c r="V94" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="95">
@@ -8137,22 +8152,22 @@
         <v>22</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="J95" s="2" t="s">
         <v>28</v>
@@ -8190,8 +8205,8 @@
       <c r="U95" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V95" s="1" t="s">
-        <v>33</v>
+      <c r="V95" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="96">
@@ -8205,22 +8220,22 @@
         <v>22</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="J96" s="2" t="s">
         <v>28</v>
@@ -8235,7 +8250,7 @@
         <v>30</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="O96" s="2" t="s">
         <v>32</v>
@@ -8258,8 +8273,8 @@
       <c r="U96" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V96" s="1" t="s">
-        <v>33</v>
+      <c r="V96" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="97">
@@ -8273,22 +8288,22 @@
         <v>22</v>
       </c>
       <c r="D97" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G97" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="E97" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>213</v>
-      </c>
       <c r="H97" s="1" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="J97" s="2" t="s">
         <v>28</v>
@@ -8303,7 +8318,7 @@
         <v>30</v>
       </c>
       <c r="N97" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O97" s="2" t="s">
         <v>32</v>
@@ -8326,8 +8341,8 @@
       <c r="U97" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V97" s="1" t="s">
-        <v>33</v>
+      <c r="V97" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="98">
@@ -8341,22 +8356,22 @@
         <v>22</v>
       </c>
       <c r="D98" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H98" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="E98" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>214</v>
-      </c>
       <c r="I98" s="1" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="J98" s="2" t="s">
         <v>28</v>
@@ -8371,7 +8386,7 @@
         <v>30</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="O98" s="2" t="s">
         <v>32</v>
@@ -8394,8 +8409,8 @@
       <c r="U98" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V98" s="1" t="s">
-        <v>33</v>
+      <c r="V98" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="99">
@@ -8412,19 +8427,19 @@
         <v>28</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="J99" s="2" t="s">
         <v>28</v>
@@ -8462,8 +8477,8 @@
       <c r="U99" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V99" s="1" t="s">
-        <v>33</v>
+      <c r="V99" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="100">
@@ -8477,22 +8492,22 @@
         <v>22</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="J100" s="2" t="s">
         <v>28</v>
@@ -8507,7 +8522,7 @@
         <v>30</v>
       </c>
       <c r="N100" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="O100" s="2" t="s">
         <v>32</v>
@@ -8530,8 +8545,8 @@
       <c r="U100" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V100" s="1" t="s">
-        <v>33</v>
+      <c r="V100" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="101">
@@ -8545,22 +8560,22 @@
         <v>22</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="J101" s="2" t="s">
         <v>28</v>
@@ -8598,8 +8613,8 @@
       <c r="U101" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V101" s="1" t="s">
-        <v>33</v>
+      <c r="V101" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="102">
@@ -8613,22 +8628,22 @@
         <v>22</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="J102" s="2" t="s">
         <v>28</v>
@@ -8666,8 +8681,8 @@
       <c r="U102" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V102" s="1" t="s">
-        <v>33</v>
+      <c r="V102" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="103">
@@ -8681,22 +8696,22 @@
         <v>22</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="J103" s="2" t="s">
         <v>28</v>
@@ -8711,13 +8726,13 @@
         <v>30</v>
       </c>
       <c r="N103" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="O103" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P103" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="Q103" s="2" t="s">
         <v>32</v>
@@ -8734,8 +8749,8 @@
       <c r="U103" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V103" s="1" t="s">
-        <v>33</v>
+      <c r="V103" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="104">
@@ -8749,22 +8764,22 @@
         <v>22</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="J104" s="2" t="s">
         <v>28</v>
@@ -8785,7 +8800,7 @@
         <v>32</v>
       </c>
       <c r="P104" s="2" t="s">
-        <v>224</v>
+        <v>40</v>
       </c>
       <c r="Q104" s="2" t="s">
         <v>32</v>
@@ -8802,8 +8817,8 @@
       <c r="U104" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V104" s="1" t="s">
-        <v>33</v>
+      <c r="V104" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="105">
@@ -8817,22 +8832,22 @@
         <v>22</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="J105" s="2" t="s">
         <v>28</v>
@@ -8847,13 +8862,13 @@
         <v>30</v>
       </c>
       <c r="N105" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O105" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="P105" s="2" t="s">
-        <v>32</v>
+        <v>228</v>
       </c>
       <c r="Q105" s="2" t="s">
         <v>32</v>
@@ -8870,8 +8885,8 @@
       <c r="U105" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V105" s="1" t="s">
-        <v>33</v>
+      <c r="V105" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="106">
@@ -8885,22 +8900,22 @@
         <v>22</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="J106" s="2" t="s">
         <v>28</v>
@@ -8915,10 +8930,10 @@
         <v>30</v>
       </c>
       <c r="N106" s="2" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="O106" s="2" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="P106" s="2" t="s">
         <v>32</v>
@@ -8938,8 +8953,8 @@
       <c r="U106" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V106" s="1" t="s">
-        <v>33</v>
+      <c r="V106" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="107">
@@ -8953,22 +8968,22 @@
         <v>22</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="J107" s="2" t="s">
         <v>28</v>
@@ -8986,7 +9001,7 @@
         <v>40</v>
       </c>
       <c r="O107" s="2" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="P107" s="2" t="s">
         <v>32</v>
@@ -9006,8 +9021,8 @@
       <c r="U107" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V107" s="1" t="s">
-        <v>33</v>
+      <c r="V107" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="108">
@@ -9021,22 +9036,22 @@
         <v>22</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="J108" s="2" t="s">
         <v>28</v>
@@ -9051,10 +9066,10 @@
         <v>30</v>
       </c>
       <c r="N108" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="O108" s="2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="P108" s="2" t="s">
         <v>32</v>
@@ -9074,8 +9089,8 @@
       <c r="U108" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V108" s="1" t="s">
-        <v>33</v>
+      <c r="V108" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="109">
@@ -9089,22 +9104,22 @@
         <v>22</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="J109" s="2" t="s">
         <v>28</v>
@@ -9122,7 +9137,7 @@
         <v>40</v>
       </c>
       <c r="O109" s="2" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="P109" s="2" t="s">
         <v>32</v>
@@ -9142,8 +9157,8 @@
       <c r="U109" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V109" s="1" t="s">
-        <v>33</v>
+      <c r="V109" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="110">
@@ -9157,22 +9172,22 @@
         <v>22</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="J110" s="2" t="s">
         <v>28</v>
@@ -9187,10 +9202,10 @@
         <v>30</v>
       </c>
       <c r="N110" s="2" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="O110" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="P110" s="2" t="s">
         <v>32</v>
@@ -9210,8 +9225,8 @@
       <c r="U110" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V110" s="1" t="s">
-        <v>33</v>
+      <c r="V110" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="111">
@@ -9225,22 +9240,22 @@
         <v>22</v>
       </c>
       <c r="D111" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="G111" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E111" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>226</v>
-      </c>
       <c r="H111" s="1" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="J111" s="2" t="s">
         <v>28</v>
@@ -9255,10 +9270,10 @@
         <v>30</v>
       </c>
       <c r="N111" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="O111" s="2" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="P111" s="2" t="s">
         <v>32</v>
@@ -9278,8 +9293,8 @@
       <c r="U111" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V111" s="1" t="s">
-        <v>33</v>
+      <c r="V111" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="112">
@@ -9293,22 +9308,22 @@
         <v>22</v>
       </c>
       <c r="D112" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="H112" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="E112" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H112" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="I112" s="1" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="J112" s="2" t="s">
         <v>28</v>
@@ -9326,7 +9341,7 @@
         <v>32</v>
       </c>
       <c r="O112" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="P112" s="2" t="s">
         <v>32</v>
@@ -9346,8 +9361,8 @@
       <c r="U112" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V112" s="1" t="s">
-        <v>33</v>
+      <c r="V112" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="113">
@@ -9361,22 +9376,22 @@
         <v>22</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="J113" s="2" t="s">
         <v>28</v>
@@ -9394,7 +9409,7 @@
         <v>32</v>
       </c>
       <c r="O113" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="P113" s="2" t="s">
         <v>32</v>
@@ -9414,8 +9429,8 @@
       <c r="U113" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V113" s="1" t="s">
-        <v>33</v>
+      <c r="V113" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="114">
@@ -9429,22 +9444,22 @@
         <v>22</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="J114" s="2" t="s">
         <v>28</v>
@@ -9462,7 +9477,7 @@
         <v>32</v>
       </c>
       <c r="O114" s="2" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="P114" s="2" t="s">
         <v>32</v>
@@ -9497,22 +9512,22 @@
         <v>22</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="J115" s="2" t="s">
         <v>28</v>
@@ -9527,10 +9542,10 @@
         <v>30</v>
       </c>
       <c r="N115" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O115" s="2" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="P115" s="2" t="s">
         <v>32</v>
@@ -9550,8 +9565,8 @@
       <c r="U115" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V115" s="1" t="s">
-        <v>33</v>
+      <c r="V115" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="116">
@@ -9565,22 +9580,22 @@
         <v>22</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="J116" s="2" t="s">
         <v>28</v>
@@ -9618,8 +9633,8 @@
       <c r="U116" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V116" s="1" t="s">
-        <v>33</v>
+      <c r="V116" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="117">
@@ -9633,22 +9648,22 @@
         <v>22</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="J117" s="2" t="s">
         <v>28</v>
@@ -9663,7 +9678,7 @@
         <v>30</v>
       </c>
       <c r="N117" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O117" s="2" t="s">
         <v>32</v>
@@ -9686,8 +9701,8 @@
       <c r="U117" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V117" s="1" t="s">
-        <v>33</v>
+      <c r="V117" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="118">
@@ -9701,22 +9716,22 @@
         <v>22</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="J118" s="2" t="s">
         <v>28</v>
@@ -9754,8 +9769,8 @@
       <c r="U118" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V118" s="1" t="s">
-        <v>33</v>
+      <c r="V118" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="119">
@@ -9769,22 +9784,22 @@
         <v>22</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="J119" s="2" t="s">
         <v>28</v>
@@ -9822,8 +9837,8 @@
       <c r="U119" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V119" s="1" t="s">
-        <v>33</v>
+      <c r="V119" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="120">
@@ -9837,22 +9852,22 @@
         <v>22</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="J120" s="2" t="s">
         <v>28</v>
@@ -9890,8 +9905,8 @@
       <c r="U120" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V120" s="1" t="s">
-        <v>33</v>
+      <c r="V120" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="121">
@@ -9905,22 +9920,22 @@
         <v>22</v>
       </c>
       <c r="D121" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F121" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="E121" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F121" s="2" t="s">
+      <c r="G121" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="G121" s="1" t="s">
+      <c r="H121" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="H121" s="1" t="s">
-        <v>254</v>
-      </c>
       <c r="I121" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J121" s="2" t="s">
         <v>28</v>
@@ -9935,7 +9950,7 @@
         <v>30</v>
       </c>
       <c r="N121" s="2" t="s">
-        <v>255</v>
+        <v>51</v>
       </c>
       <c r="O121" s="2" t="s">
         <v>32</v>
@@ -9958,8 +9973,8 @@
       <c r="U121" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V121" s="1" t="s">
-        <v>33</v>
+      <c r="V121" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="122">
@@ -9973,22 +9988,22 @@
         <v>22</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="J122" s="2" t="s">
         <v>28</v>
@@ -10003,7 +10018,7 @@
         <v>30</v>
       </c>
       <c r="N122" s="2" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="O122" s="2" t="s">
         <v>32</v>
@@ -10026,8 +10041,8 @@
       <c r="U122" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V122" s="1" t="s">
-        <v>33</v>
+      <c r="V122" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="123">
@@ -10041,22 +10056,22 @@
         <v>22</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="J123" s="2" t="s">
         <v>28</v>
@@ -10071,13 +10086,13 @@
         <v>30</v>
       </c>
       <c r="N123" s="2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="O123" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P123" s="2" t="s">
-        <v>150</v>
+        <v>32</v>
       </c>
       <c r="Q123" s="2" t="s">
         <v>32</v>
@@ -10094,8 +10109,8 @@
       <c r="U123" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V123" s="1" t="s">
-        <v>33</v>
+      <c r="V123" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="124">
@@ -10109,22 +10124,22 @@
         <v>22</v>
       </c>
       <c r="D124" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F124" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="E124" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>252</v>
-      </c>
       <c r="G124" s="1" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="J124" s="2" t="s">
         <v>28</v>
@@ -10139,13 +10154,13 @@
         <v>30</v>
       </c>
       <c r="N124" s="2" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="O124" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P124" s="2" t="s">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="Q124" s="2" t="s">
         <v>32</v>
@@ -10162,8 +10177,8 @@
       <c r="U124" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V124" s="1" t="s">
-        <v>33</v>
+      <c r="V124" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="125">
@@ -10177,22 +10192,22 @@
         <v>22</v>
       </c>
       <c r="D125" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="H125" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="E125" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="G125" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="H125" s="1" t="s">
-        <v>254</v>
-      </c>
       <c r="I125" s="1" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="J125" s="2" t="s">
         <v>28</v>
@@ -10207,13 +10222,13 @@
         <v>30</v>
       </c>
       <c r="N125" s="2" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="O125" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P125" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="Q125" s="2" t="s">
         <v>32</v>
@@ -10230,8 +10245,8 @@
       <c r="U125" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V125" s="1" t="s">
-        <v>33</v>
+      <c r="V125" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="126">
@@ -10245,22 +10260,22 @@
         <v>22</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="J126" s="2" t="s">
         <v>28</v>
@@ -10275,13 +10290,13 @@
         <v>30</v>
       </c>
       <c r="N126" s="2" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="O126" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P126" s="2" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="Q126" s="2" t="s">
         <v>32</v>
@@ -10298,8 +10313,8 @@
       <c r="U126" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V126" s="1" t="s">
-        <v>33</v>
+      <c r="V126" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="127">
@@ -10313,22 +10328,22 @@
         <v>22</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="J127" s="2" t="s">
         <v>28</v>
@@ -10343,7 +10358,7 @@
         <v>30</v>
       </c>
       <c r="N127" s="2" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="O127" s="2" t="s">
         <v>32</v>
@@ -10366,8 +10381,8 @@
       <c r="U127" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V127" s="1" t="s">
-        <v>33</v>
+      <c r="V127" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="128">
@@ -10381,22 +10396,22 @@
         <v>22</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="J128" s="2" t="s">
         <v>28</v>
@@ -10411,7 +10426,7 @@
         <v>30</v>
       </c>
       <c r="N128" s="2" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="O128" s="2" t="s">
         <v>32</v>
@@ -10434,8 +10449,8 @@
       <c r="U128" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V128" s="1" t="s">
-        <v>33</v>
+      <c r="V128" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="129">
@@ -10449,22 +10464,22 @@
         <v>22</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="J129" s="2" t="s">
         <v>28</v>
@@ -10479,7 +10494,7 @@
         <v>30</v>
       </c>
       <c r="N129" s="2" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="O129" s="2" t="s">
         <v>32</v>
@@ -10502,8 +10517,8 @@
       <c r="U129" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V129" s="1" t="s">
-        <v>33</v>
+      <c r="V129" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="130">
@@ -10517,22 +10532,22 @@
         <v>22</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="J130" s="2" t="s">
         <v>28</v>
@@ -10547,7 +10562,7 @@
         <v>30</v>
       </c>
       <c r="N130" s="2" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="O130" s="2" t="s">
         <v>32</v>
@@ -10570,8 +10585,8 @@
       <c r="U130" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V130" s="1" t="s">
-        <v>33</v>
+      <c r="V130" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="131">
@@ -10585,22 +10600,22 @@
         <v>22</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="J131" s="2" t="s">
         <v>28</v>
@@ -10615,7 +10630,7 @@
         <v>30</v>
       </c>
       <c r="N131" s="2" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="O131" s="2" t="s">
         <v>32</v>
@@ -10638,8 +10653,8 @@
       <c r="U131" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V131" s="1" t="s">
-        <v>33</v>
+      <c r="V131" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="132">
@@ -10653,22 +10668,22 @@
         <v>22</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="J132" s="2" t="s">
         <v>28</v>
@@ -10683,13 +10698,13 @@
         <v>30</v>
       </c>
       <c r="N132" s="2" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="O132" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="P132" s="2" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="Q132" s="2" t="s">
         <v>32</v>
@@ -10706,8 +10721,8 @@
       <c r="U132" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V132" s="1" t="s">
-        <v>33</v>
+      <c r="V132" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="133">
@@ -10721,22 +10736,22 @@
         <v>22</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="J133" s="2" t="s">
         <v>28</v>
@@ -10751,13 +10766,13 @@
         <v>30</v>
       </c>
       <c r="N133" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="O133" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="P133" s="2" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="Q133" s="2" t="s">
         <v>32</v>
@@ -10774,8 +10789,8 @@
       <c r="U133" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V133" s="1" t="s">
-        <v>33</v>
+      <c r="V133" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="134">
@@ -10789,22 +10804,22 @@
         <v>22</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="J134" s="2" t="s">
         <v>28</v>
@@ -10819,13 +10834,13 @@
         <v>30</v>
       </c>
       <c r="N134" s="2" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="O134" s="2" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="P134" s="2" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="Q134" s="2" t="s">
         <v>32</v>
@@ -10842,8 +10857,8 @@
       <c r="U134" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V134" s="1" t="s">
-        <v>33</v>
+      <c r="V134" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="135">
@@ -10857,22 +10872,22 @@
         <v>22</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="J135" s="2" t="s">
         <v>28</v>
@@ -10887,10 +10902,10 @@
         <v>30</v>
       </c>
       <c r="N135" s="2" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="O135" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="P135" s="2" t="s">
         <v>32</v>
@@ -10910,8 +10925,8 @@
       <c r="U135" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V135" s="1" t="s">
-        <v>33</v>
+      <c r="V135" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="136">
@@ -10925,22 +10940,22 @@
         <v>22</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="J136" s="2" t="s">
         <v>28</v>
@@ -10955,13 +10970,13 @@
         <v>30</v>
       </c>
       <c r="N136" s="2" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="O136" s="2" t="s">
         <v>40</v>
       </c>
       <c r="P136" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="Q136" s="2" t="s">
         <v>32</v>
@@ -10978,8 +10993,8 @@
       <c r="U136" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V136" s="1" t="s">
-        <v>33</v>
+      <c r="V136" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="137">
@@ -10993,22 +11008,22 @@
         <v>22</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="J137" s="2" t="s">
         <v>28</v>
@@ -11023,13 +11038,13 @@
         <v>30</v>
       </c>
       <c r="N137" s="2" t="s">
-        <v>32</v>
+        <v>282</v>
       </c>
       <c r="O137" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="P137" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="Q137" s="2" t="s">
         <v>32</v>
@@ -11041,13 +11056,13 @@
         <v>32</v>
       </c>
       <c r="T137" s="2" t="s">
-        <v>281</v>
+        <v>32</v>
       </c>
       <c r="U137" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V137" s="1" t="s">
-        <v>33</v>
+      <c r="V137" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="138">
@@ -11061,22 +11076,22 @@
         <v>22</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="J138" s="2" t="s">
         <v>28</v>
@@ -11097,7 +11112,7 @@
         <v>32</v>
       </c>
       <c r="P138" s="2" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="Q138" s="2" t="s">
         <v>32</v>
@@ -11109,13 +11124,13 @@
         <v>32</v>
       </c>
       <c r="T138" s="2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="U138" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V138" s="1" t="s">
-        <v>33</v>
+      <c r="V138" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="139">
@@ -11129,22 +11144,22 @@
         <v>22</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="J139" s="2" t="s">
         <v>28</v>
@@ -11165,7 +11180,7 @@
         <v>32</v>
       </c>
       <c r="P139" s="2" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="Q139" s="2" t="s">
         <v>32</v>
@@ -11177,13 +11192,13 @@
         <v>32</v>
       </c>
       <c r="T139" s="2" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="U139" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V139" s="1" t="s">
-        <v>33</v>
+      <c r="V139" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="140">
@@ -11197,22 +11212,22 @@
         <v>22</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="J140" s="2" t="s">
         <v>28</v>
@@ -11230,7 +11245,7 @@
         <v>32</v>
       </c>
       <c r="O140" s="2" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="P140" s="2" t="s">
         <v>32</v>
@@ -11245,7 +11260,7 @@
         <v>32</v>
       </c>
       <c r="T140" s="2" t="s">
-        <v>32</v>
+        <v>289</v>
       </c>
       <c r="U140" s="1" t="s">
         <v>33</v>
@@ -11265,22 +11280,22 @@
         <v>22</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="J141" s="2" t="s">
         <v>28</v>
@@ -11298,7 +11313,7 @@
         <v>32</v>
       </c>
       <c r="O141" s="2" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="P141" s="2" t="s">
         <v>32</v>
@@ -11333,22 +11348,22 @@
         <v>22</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>41</v>
+        <v>129</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="J142" s="2" t="s">
         <v>28</v>
@@ -11363,10 +11378,10 @@
         <v>30</v>
       </c>
       <c r="N142" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O142" s="2" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="P142" s="2" t="s">
         <v>32</v>
@@ -11386,8 +11401,8 @@
       <c r="U142" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V142" s="1" t="s">
-        <v>33</v>
+      <c r="V142" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="143">
@@ -11401,22 +11416,22 @@
         <v>22</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="J143" s="2" t="s">
         <v>28</v>
@@ -11454,8 +11469,8 @@
       <c r="U143" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V143" s="1" t="s">
-        <v>33</v>
+      <c r="V143" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="144">
@@ -11469,22 +11484,22 @@
         <v>22</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="J144" s="2" t="s">
         <v>28</v>
@@ -11522,8 +11537,8 @@
       <c r="U144" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V144" s="1" t="s">
-        <v>33</v>
+      <c r="V144" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="145">
@@ -11537,22 +11552,22 @@
         <v>22</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="J145" s="2" t="s">
         <v>28</v>
@@ -11590,8 +11605,8 @@
       <c r="U145" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V145" s="1" t="s">
-        <v>33</v>
+      <c r="V145" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="146">
@@ -11605,22 +11620,22 @@
         <v>22</v>
       </c>
       <c r="D146" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F146" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="E146" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F146" s="2" t="s">
+      <c r="G146" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="G146" s="1" t="s">
+      <c r="H146" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="H146" s="1" t="s">
-        <v>297</v>
-      </c>
       <c r="I146" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J146" s="2" t="s">
         <v>28</v>
@@ -11635,10 +11650,10 @@
         <v>30</v>
       </c>
       <c r="N146" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="O146" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="P146" s="2" t="s">
         <v>32</v>
@@ -11673,22 +11688,22 @@
         <v>22</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="J147" s="2" t="s">
         <v>28</v>
@@ -11741,22 +11756,22 @@
         <v>22</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="J148" s="2" t="s">
         <v>28</v>
@@ -11794,8 +11809,8 @@
       <c r="U148" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V148" s="1" t="s">
-        <v>33</v>
+      <c r="V148" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="149">
@@ -11809,22 +11824,22 @@
         <v>22</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="J149" s="2" t="s">
         <v>28</v>
@@ -11862,8 +11877,8 @@
       <c r="U149" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V149" s="1" t="s">
-        <v>33</v>
+      <c r="V149" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="150">
@@ -11877,22 +11892,22 @@
         <v>22</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="J150" s="2" t="s">
         <v>28</v>
@@ -11930,8 +11945,8 @@
       <c r="U150" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V150" s="1" t="s">
-        <v>33</v>
+      <c r="V150" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="151">
@@ -11945,22 +11960,22 @@
         <v>22</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="J151" s="2" t="s">
         <v>28</v>
@@ -11998,8 +12013,8 @@
       <c r="U151" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V151" s="1" t="s">
-        <v>33</v>
+      <c r="V151" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="152">
@@ -12013,22 +12028,22 @@
         <v>22</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="J152" s="2" t="s">
         <v>28</v>
@@ -12066,8 +12081,8 @@
       <c r="U152" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V152" s="1" t="s">
-        <v>33</v>
+      <c r="V152" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="153">
@@ -12081,22 +12096,22 @@
         <v>22</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="J153" s="2" t="s">
         <v>28</v>
@@ -12134,8 +12149,8 @@
       <c r="U153" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V153" s="1" t="s">
-        <v>33</v>
+      <c r="V153" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="154">
@@ -12149,22 +12164,22 @@
         <v>22</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="J154" s="2" t="s">
         <v>28</v>
@@ -12202,8 +12217,8 @@
       <c r="U154" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V154" s="1" t="s">
-        <v>33</v>
+      <c r="V154" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="155">
@@ -12217,22 +12232,22 @@
         <v>22</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="J155" s="2" t="s">
         <v>28</v>
@@ -12270,8 +12285,8 @@
       <c r="U155" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V155" s="1" t="s">
-        <v>33</v>
+      <c r="V155" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="156">
@@ -12285,22 +12300,22 @@
         <v>22</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="J156" s="2" t="s">
         <v>28</v>
@@ -12338,8 +12353,8 @@
       <c r="U156" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V156" s="1" t="s">
-        <v>33</v>
+      <c r="V156" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="157">
@@ -12353,22 +12368,22 @@
         <v>22</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>89</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="J157" s="2" t="s">
         <v>28</v>
@@ -12406,8 +12421,8 @@
       <c r="U157" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V157" s="1" t="s">
-        <v>33</v>
+      <c r="V157" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="158">
@@ -12421,22 +12436,22 @@
         <v>22</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>92</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="J158" s="2" t="s">
         <v>28</v>
@@ -12474,8 +12489,8 @@
       <c r="U158" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V158" s="1" t="s">
-        <v>33</v>
+      <c r="V158" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="159">
@@ -12489,22 +12504,22 @@
         <v>22</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>95</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="J159" s="2" t="s">
         <v>28</v>
@@ -12542,8 +12557,8 @@
       <c r="U159" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V159" s="1" t="s">
-        <v>33</v>
+      <c r="V159" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="160">
@@ -12557,22 +12572,22 @@
         <v>22</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>99</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="J160" s="2" t="s">
         <v>28</v>
@@ -12610,8 +12625,8 @@
       <c r="U160" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V160" s="1" t="s">
-        <v>33</v>
+      <c r="V160" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="161">
@@ -12625,22 +12640,22 @@
         <v>22</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>102</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="J161" s="2" t="s">
         <v>28</v>
@@ -12678,8 +12693,8 @@
       <c r="U161" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V161" s="1" t="s">
-        <v>33</v>
+      <c r="V161" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="162">
@@ -12693,22 +12708,22 @@
         <v>22</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>106</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="J162" s="2" t="s">
         <v>28</v>
@@ -12746,8 +12761,8 @@
       <c r="U162" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V162" s="1" t="s">
-        <v>33</v>
+      <c r="V162" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="163">
@@ -12761,22 +12776,22 @@
         <v>22</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>110</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="J163" s="2" t="s">
         <v>28</v>
@@ -12814,8 +12829,8 @@
       <c r="U163" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V163" s="1" t="s">
-        <v>33</v>
+      <c r="V163" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="164">
@@ -12829,22 +12844,22 @@
         <v>22</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>113</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="J164" s="2" t="s">
         <v>28</v>
@@ -12882,8 +12897,8 @@
       <c r="U164" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V164" s="1" t="s">
-        <v>33</v>
+      <c r="V164" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="165">
@@ -12903,16 +12918,16 @@
         <v>117</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="J165" s="2" t="s">
         <v>28</v>
@@ -12950,8 +12965,8 @@
       <c r="U165" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V165" s="1" t="s">
-        <v>33</v>
+      <c r="V165" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="166">
@@ -12965,22 +12980,22 @@
         <v>22</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>121</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="J166" s="2" t="s">
         <v>28</v>
@@ -13018,8 +13033,8 @@
       <c r="U166" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V166" s="1" t="s">
-        <v>33</v>
+      <c r="V166" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="167">
@@ -13033,22 +13048,22 @@
         <v>22</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>125</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="J167" s="2" t="s">
         <v>28</v>
@@ -13101,22 +13116,22 @@
         <v>22</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>129</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="I168" s="1" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="J168" s="2" t="s">
         <v>28</v>
@@ -13131,10 +13146,10 @@
         <v>30</v>
       </c>
       <c r="N168" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="O168" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="P168" s="2" t="s">
         <v>32</v>
@@ -13169,22 +13184,22 @@
         <v>22</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="J169" s="2" t="s">
         <v>28</v>
@@ -13199,7 +13214,7 @@
         <v>30</v>
       </c>
       <c r="N169" s="2" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="O169" s="2" t="s">
         <v>32</v>
@@ -13222,8 +13237,8 @@
       <c r="U169" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V169" s="1" t="s">
-        <v>33</v>
+      <c r="V169" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="170">
@@ -13237,22 +13252,22 @@
         <v>22</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="I170" s="1" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="J170" s="2" t="s">
         <v>28</v>
@@ -13267,7 +13282,7 @@
         <v>30</v>
       </c>
       <c r="N170" s="2" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="O170" s="2" t="s">
         <v>32</v>
@@ -13290,8 +13305,8 @@
       <c r="U170" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V170" s="1" t="s">
-        <v>33</v>
+      <c r="V170" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="171">
@@ -13305,22 +13320,22 @@
         <v>22</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="J171" s="2" t="s">
         <v>28</v>
@@ -13335,7 +13350,7 @@
         <v>30</v>
       </c>
       <c r="N171" s="2" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="O171" s="2" t="s">
         <v>32</v>
@@ -13358,8 +13373,8 @@
       <c r="U171" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V171" s="1" t="s">
-        <v>33</v>
+      <c r="V171" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="172">
@@ -13373,22 +13388,22 @@
         <v>22</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="J172" s="2" t="s">
         <v>28</v>
@@ -13403,7 +13418,7 @@
         <v>30</v>
       </c>
       <c r="N172" s="2" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="O172" s="2" t="s">
         <v>32</v>
@@ -13426,8 +13441,8 @@
       <c r="U172" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V172" s="1" t="s">
-        <v>33</v>
+      <c r="V172" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="173">
@@ -13441,22 +13456,22 @@
         <v>22</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="I173" s="1" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="J173" s="2" t="s">
         <v>28</v>
@@ -13471,7 +13486,7 @@
         <v>30</v>
       </c>
       <c r="N173" s="2" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="O173" s="2" t="s">
         <v>32</v>
@@ -13494,8 +13509,8 @@
       <c r="U173" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V173" s="1" t="s">
-        <v>33</v>
+      <c r="V173" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="174">
@@ -13509,22 +13524,22 @@
         <v>22</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="I174" s="1" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="J174" s="2" t="s">
         <v>28</v>
@@ -13539,7 +13554,7 @@
         <v>30</v>
       </c>
       <c r="N174" s="2" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="O174" s="2" t="s">
         <v>32</v>
@@ -13562,8 +13577,8 @@
       <c r="U174" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V174" s="1" t="s">
-        <v>33</v>
+      <c r="V174" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="175">
@@ -13577,22 +13592,22 @@
         <v>22</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="I175" s="1" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="J175" s="2" t="s">
         <v>28</v>
@@ -13607,13 +13622,13 @@
         <v>30</v>
       </c>
       <c r="N175" s="2" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="O175" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P175" s="2" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="Q175" s="2" t="s">
         <v>32</v>
@@ -13630,8 +13645,8 @@
       <c r="U175" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V175" s="1" t="s">
-        <v>33</v>
+      <c r="V175" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="176">
@@ -13645,22 +13660,22 @@
         <v>22</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="I176" s="1" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="J176" s="2" t="s">
         <v>28</v>
@@ -13675,13 +13690,13 @@
         <v>30</v>
       </c>
       <c r="N176" s="2" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="O176" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P176" s="2" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="Q176" s="2" t="s">
         <v>32</v>
@@ -13698,8 +13713,8 @@
       <c r="U176" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V176" s="1" t="s">
-        <v>33</v>
+      <c r="V176" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="177">
@@ -13713,22 +13728,22 @@
         <v>22</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="I177" s="1" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="J177" s="2" t="s">
         <v>28</v>
@@ -13743,13 +13758,13 @@
         <v>30</v>
       </c>
       <c r="N177" s="2" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="O177" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P177" s="2" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="Q177" s="2" t="s">
         <v>32</v>
@@ -13766,8 +13781,8 @@
       <c r="U177" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V177" s="1" t="s">
-        <v>33</v>
+      <c r="V177" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="178">
@@ -13781,22 +13796,22 @@
         <v>22</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="I178" s="1" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="J178" s="2" t="s">
         <v>28</v>
@@ -13811,13 +13826,13 @@
         <v>30</v>
       </c>
       <c r="N178" s="2" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="O178" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P178" s="2" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="Q178" s="2" t="s">
         <v>32</v>
@@ -13834,8 +13849,8 @@
       <c r="U178" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V178" s="1" t="s">
-        <v>33</v>
+      <c r="V178" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="179">
@@ -13849,22 +13864,22 @@
         <v>22</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="I179" s="1" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="J179" s="2" t="s">
         <v>28</v>
@@ -13879,7 +13894,7 @@
         <v>30</v>
       </c>
       <c r="N179" s="2" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="O179" s="2" t="s">
         <v>32</v>
@@ -13902,8 +13917,8 @@
       <c r="U179" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V179" s="1" t="s">
-        <v>33</v>
+      <c r="V179" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="180">
@@ -13917,22 +13932,22 @@
         <v>22</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="J180" s="2" t="s">
         <v>28</v>
@@ -13947,7 +13962,7 @@
         <v>30</v>
       </c>
       <c r="N180" s="2" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="O180" s="2" t="s">
         <v>32</v>
@@ -13970,8 +13985,8 @@
       <c r="U180" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V180" s="1" t="s">
-        <v>33</v>
+      <c r="V180" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="181">
@@ -13985,22 +14000,22 @@
         <v>22</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>66</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="I181" s="1" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="J181" s="2" t="s">
         <v>28</v>
@@ -14015,7 +14030,7 @@
         <v>30</v>
       </c>
       <c r="N181" s="2" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="O181" s="2" t="s">
         <v>32</v>
@@ -14038,8 +14053,8 @@
       <c r="U181" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V181" s="1" t="s">
-        <v>33</v>
+      <c r="V181" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="182">
@@ -14059,16 +14074,16 @@
         <v>80</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="H182" s="1" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="I182" s="1" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="J182" s="2" t="s">
         <v>28</v>
@@ -14106,8 +14121,8 @@
       <c r="U182" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V182" s="1" t="s">
-        <v>33</v>
+      <c r="V182" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="183">
@@ -14121,22 +14136,22 @@
         <v>22</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>351</v>
+        <v>130</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>106</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="H183" s="1" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="I183" s="1" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="J183" s="2" t="s">
         <v>28</v>
@@ -14174,8 +14189,8 @@
       <c r="U183" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V183" s="1" t="s">
-        <v>33</v>
+      <c r="V183" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="184">
@@ -14189,22 +14204,22 @@
         <v>22</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>95</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="H184" s="1" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="I184" s="1" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="J184" s="2" t="s">
         <v>28</v>
@@ -14242,8 +14257,8 @@
       <c r="U184" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V184" s="1" t="s">
-        <v>33</v>
+      <c r="V184" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="185">
@@ -14257,22 +14272,22 @@
         <v>22</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>99</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="H185" s="1" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="I185" s="1" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="J185" s="2" t="s">
         <v>28</v>
@@ -14310,8 +14325,8 @@
       <c r="U185" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V185" s="1" t="s">
-        <v>33</v>
+      <c r="V185" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="186">
@@ -14325,22 +14340,22 @@
         <v>22</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>102</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="H186" s="1" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="I186" s="1" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="J186" s="2" t="s">
         <v>28</v>
@@ -14378,8 +14393,8 @@
       <c r="U186" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V186" s="1" t="s">
-        <v>33</v>
+      <c r="V186" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="187">
@@ -14393,22 +14408,22 @@
         <v>22</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>125</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="I187" s="1" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="J187" s="2" t="s">
         <v>28</v>
@@ -14426,7 +14441,7 @@
         <v>32</v>
       </c>
       <c r="O187" s="2" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="P187" s="2" t="s">
         <v>32</v>
@@ -14461,22 +14476,22 @@
         <v>22</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>129</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="H188" s="1" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="I188" s="1" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="J188" s="2" t="s">
         <v>28</v>
@@ -14491,10 +14506,10 @@
         <v>30</v>
       </c>
       <c r="N188" s="2" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="O188" s="2" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="P188" s="2" t="s">
         <v>32</v>
@@ -14529,22 +14544,22 @@
         <v>22</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="I189" s="1" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="J189" s="2" t="s">
         <v>28</v>
@@ -14582,8 +14597,8 @@
       <c r="U189" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V189" s="1" t="s">
-        <v>33</v>
+      <c r="V189" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="190">
@@ -14597,22 +14612,22 @@
         <v>22</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>66</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="I190" s="1" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="J190" s="2" t="s">
         <v>28</v>
@@ -14650,8 +14665,8 @@
       <c r="U190" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V190" s="1" t="s">
-        <v>33</v>
+      <c r="V190" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="191">
@@ -14665,22 +14680,22 @@
         <v>22</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>70</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="H191" s="1" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="I191" s="1" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="J191" s="2" t="s">
         <v>28</v>
@@ -14695,7 +14710,7 @@
         <v>30</v>
       </c>
       <c r="N191" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O191" s="2" t="s">
         <v>154</v>
@@ -14718,8 +14733,8 @@
       <c r="U191" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V191" s="1" t="s">
-        <v>33</v>
+      <c r="V191" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="192">
@@ -14733,22 +14748,22 @@
         <v>22</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>73</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="I192" s="1" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="J192" s="2" t="s">
         <v>28</v>
@@ -14763,7 +14778,7 @@
         <v>30</v>
       </c>
       <c r="N192" s="2" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="O192" s="2" t="s">
         <v>142</v>
@@ -14786,8 +14801,8 @@
       <c r="U192" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V192" s="1" t="s">
-        <v>33</v>
+      <c r="V192" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="193">
@@ -14801,22 +14816,22 @@
         <v>22</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>76</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="H193" s="1" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="I193" s="1" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="J193" s="2" t="s">
         <v>28</v>
@@ -14831,7 +14846,7 @@
         <v>30</v>
       </c>
       <c r="N193" s="2" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="O193" s="2" t="s">
         <v>141</v>
@@ -14854,8 +14869,8 @@
       <c r="U193" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V193" s="1" t="s">
-        <v>33</v>
+      <c r="V193" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="194">
@@ -14869,22 +14884,22 @@
         <v>22</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>80</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="H194" s="1" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="I194" s="1" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="J194" s="2" t="s">
         <v>28</v>
@@ -14899,7 +14914,7 @@
         <v>30</v>
       </c>
       <c r="N194" s="2" t="s">
-        <v>351</v>
+        <v>130</v>
       </c>
       <c r="O194" s="2" t="s">
         <v>162</v>
@@ -14922,8 +14937,8 @@
       <c r="U194" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V194" s="1" t="s">
-        <v>33</v>
+      <c r="V194" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="195">
@@ -14937,22 +14952,22 @@
         <v>22</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>84</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="I195" s="1" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="J195" s="2" t="s">
         <v>28</v>
@@ -14967,10 +14982,10 @@
         <v>30</v>
       </c>
       <c r="N195" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O195" s="2" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="P195" s="2" t="s">
         <v>32</v>
@@ -14990,8 +15005,8 @@
       <c r="U195" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V195" s="1" t="s">
-        <v>33</v>
+      <c r="V195" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="196">
@@ -15005,22 +15020,22 @@
         <v>22</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>86</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="H196" s="1" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="I196" s="1" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="J196" s="2" t="s">
         <v>28</v>
@@ -15058,8 +15073,8 @@
       <c r="U196" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V196" s="1" t="s">
-        <v>33</v>
+      <c r="V196" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="197">
@@ -15073,22 +15088,22 @@
         <v>22</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>89</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="H197" s="1" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="I197" s="1" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="J197" s="2" t="s">
         <v>28</v>
@@ -15126,8 +15141,8 @@
       <c r="U197" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V197" s="1" t="s">
-        <v>33</v>
+      <c r="V197" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="198">
@@ -15141,22 +15156,22 @@
         <v>22</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="E198" s="2" t="s">
         <v>92</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="I198" s="1" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="J198" s="2" t="s">
         <v>28</v>
@@ -15194,8 +15209,8 @@
       <c r="U198" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V198" s="1" t="s">
-        <v>33</v>
+      <c r="V198" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="199">
@@ -15215,16 +15230,16 @@
         <v>95</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="I199" s="1" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="J199" s="2" t="s">
         <v>28</v>
@@ -15262,8 +15277,8 @@
       <c r="U199" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V199" s="1" t="s">
-        <v>33</v>
+      <c r="V199" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="200">
@@ -15277,22 +15292,22 @@
         <v>22</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>99</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="I200" s="1" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="J200" s="2" t="s">
         <v>28</v>
@@ -15330,8 +15345,8 @@
       <c r="U200" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V200" s="1" t="s">
-        <v>33</v>
+      <c r="V200" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="201">
@@ -15345,22 +15360,22 @@
         <v>22</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>102</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="I201" s="1" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="J201" s="2" t="s">
         <v>28</v>
@@ -15398,8 +15413,8 @@
       <c r="U201" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V201" s="1" t="s">
-        <v>33</v>
+      <c r="V201" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="202">
@@ -15413,22 +15428,22 @@
         <v>22</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>106</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="H202" s="1" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="I202" s="1" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="J202" s="2" t="s">
         <v>28</v>
@@ -15466,8 +15481,8 @@
       <c r="U202" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V202" s="1" t="s">
-        <v>33</v>
+      <c r="V202" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="203">
@@ -15481,22 +15496,22 @@
         <v>22</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="E203" s="2" t="s">
         <v>110</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="H203" s="1" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="I203" s="1" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="J203" s="2" t="s">
         <v>28</v>
@@ -15534,8 +15549,8 @@
       <c r="U203" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V203" s="1" t="s">
-        <v>33</v>
+      <c r="V203" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="204">
@@ -15549,22 +15564,22 @@
         <v>22</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>113</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="H204" s="1" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="I204" s="1" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="J204" s="2" t="s">
         <v>28</v>
@@ -15602,8 +15617,8 @@
       <c r="U204" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V204" s="1" t="s">
-        <v>33</v>
+      <c r="V204" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="205">
@@ -15617,22 +15632,22 @@
         <v>22</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>117</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="H205" s="1" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="I205" s="1" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="J205" s="2" t="s">
         <v>28</v>
@@ -15670,8 +15685,8 @@
       <c r="U205" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V205" s="1" t="s">
-        <v>33</v>
+      <c r="V205" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="206">
@@ -15685,22 +15700,22 @@
         <v>22</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="E206" s="2" t="s">
         <v>121</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="H206" s="1" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="I206" s="1" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="J206" s="2" t="s">
         <v>28</v>
@@ -15738,8 +15753,8 @@
       <c r="U206" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V206" s="1" t="s">
-        <v>33</v>
+      <c r="V206" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="207">
@@ -15753,22 +15768,22 @@
         <v>22</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>131</v>
+        <v>385</v>
       </c>
       <c r="E207" s="2" t="s">
         <v>125</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="H207" s="1" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="I207" s="1" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="J207" s="2" t="s">
         <v>28</v>
@@ -15821,22 +15836,22 @@
         <v>22</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>129</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="H208" s="1" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="I208" s="1" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="J208" s="2" t="s">
         <v>28</v>
@@ -15889,22 +15904,22 @@
         <v>22</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="E209" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="H209" s="1" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="I209" s="1" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="J209" s="2" t="s">
         <v>28</v>
@@ -15942,8 +15957,8 @@
       <c r="U209" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V209" s="1" t="s">
-        <v>33</v>
+      <c r="V209" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="210">
@@ -15957,22 +15972,22 @@
         <v>22</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>386</v>
+        <v>131</v>
       </c>
       <c r="E210" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="H210" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="I210" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="J210" s="2" t="s">
         <v>28</v>
@@ -16005,13 +16020,13 @@
         <v>32</v>
       </c>
       <c r="T210" s="2" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="U210" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V210" s="1" t="s">
-        <v>33</v>
+      <c r="V210" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="211">
@@ -16025,22 +16040,22 @@
         <v>22</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="E211" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="H211" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="I211" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="J211" s="2" t="s">
         <v>28</v>
@@ -16073,13 +16088,13 @@
         <v>32</v>
       </c>
       <c r="T211" s="2" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="U211" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V211" s="1" t="s">
-        <v>33</v>
+      <c r="V211" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="212">
@@ -16093,22 +16108,22 @@
         <v>22</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="H212" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="I212" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="J212" s="2" t="s">
         <v>28</v>
@@ -16141,13 +16156,13 @@
         <v>32</v>
       </c>
       <c r="T212" s="2" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="U212" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V212" s="1" t="s">
-        <v>33</v>
+      <c r="V212" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="213">
@@ -16161,22 +16176,22 @@
         <v>22</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="H213" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="I213" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="J213" s="2" t="s">
         <v>28</v>
@@ -16209,13 +16224,13 @@
         <v>32</v>
       </c>
       <c r="T213" s="2" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="U213" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V213" s="1" t="s">
-        <v>33</v>
+      <c r="V213" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="214">
@@ -16229,22 +16244,22 @@
         <v>22</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="H214" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="I214" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="J214" s="2" t="s">
         <v>28</v>
@@ -16274,7 +16289,7 @@
         <v>32</v>
       </c>
       <c r="S214" s="2" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="T214" s="2" t="s">
         <v>32</v>
@@ -16282,8 +16297,8 @@
       <c r="U214" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V214" s="1" t="s">
-        <v>33</v>
+      <c r="V214" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="215">
@@ -16297,22 +16312,22 @@
         <v>22</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="E215" s="2" t="s">
         <v>66</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="H215" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="I215" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="J215" s="2" t="s">
         <v>28</v>
@@ -16342,7 +16357,7 @@
         <v>32</v>
       </c>
       <c r="S215" s="2" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="T215" s="2" t="s">
         <v>32</v>
@@ -16350,8 +16365,8 @@
       <c r="U215" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V215" s="1" t="s">
-        <v>33</v>
+      <c r="V215" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="216">
@@ -16365,22 +16380,22 @@
         <v>22</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>70</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="H216" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="I216" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="J216" s="2" t="s">
         <v>28</v>
@@ -16410,7 +16425,7 @@
         <v>32</v>
       </c>
       <c r="S216" s="2" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="T216" s="2" t="s">
         <v>32</v>
@@ -16418,8 +16433,8 @@
       <c r="U216" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V216" s="1" t="s">
-        <v>33</v>
+      <c r="V216" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="217">
@@ -16433,22 +16448,22 @@
         <v>22</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>73</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="H217" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="I217" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="J217" s="2" t="s">
         <v>28</v>
@@ -16478,7 +16493,7 @@
         <v>32</v>
       </c>
       <c r="S217" s="2" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="T217" s="2" t="s">
         <v>32</v>
@@ -16486,8 +16501,8 @@
       <c r="U217" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V217" s="1" t="s">
-        <v>33</v>
+      <c r="V217" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="218">
@@ -16501,22 +16516,22 @@
         <v>22</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>76</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="H218" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="I218" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="J218" s="2" t="s">
         <v>28</v>
@@ -16546,7 +16561,7 @@
         <v>32</v>
       </c>
       <c r="S218" s="2" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="T218" s="2" t="s">
         <v>32</v>
@@ -16554,8 +16569,8 @@
       <c r="U218" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V218" s="1" t="s">
-        <v>33</v>
+      <c r="V218" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="219">
@@ -16569,22 +16584,22 @@
         <v>22</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>80</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="H219" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="I219" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="J219" s="2" t="s">
         <v>28</v>
@@ -16614,7 +16629,7 @@
         <v>32</v>
       </c>
       <c r="S219" s="2" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="T219" s="2" t="s">
         <v>32</v>
@@ -16622,8 +16637,8 @@
       <c r="U219" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V219" s="1" t="s">
-        <v>33</v>
+      <c r="V219" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="220">
@@ -16637,22 +16652,22 @@
         <v>22</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="E220" s="2" t="s">
         <v>84</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="G220" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="H220" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="I220" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="J220" s="2" t="s">
         <v>28</v>
@@ -16682,7 +16697,7 @@
         <v>32</v>
       </c>
       <c r="S220" s="2" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="T220" s="2" t="s">
         <v>32</v>
@@ -16690,8 +16705,8 @@
       <c r="U220" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V220" s="1" t="s">
-        <v>33</v>
+      <c r="V220" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="221">
@@ -16705,22 +16720,22 @@
         <v>22</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>86</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="G221" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="H221" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="I221" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="J221" s="2" t="s">
         <v>28</v>
@@ -16750,7 +16765,7 @@
         <v>32</v>
       </c>
       <c r="S221" s="2" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="T221" s="2" t="s">
         <v>32</v>
@@ -16758,8 +16773,8 @@
       <c r="U221" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V221" s="1" t="s">
-        <v>33</v>
+      <c r="V221" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="222">
@@ -16773,22 +16788,22 @@
         <v>22</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>89</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="H222" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="I222" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="J222" s="2" t="s">
         <v>28</v>
@@ -16818,7 +16833,7 @@
         <v>32</v>
       </c>
       <c r="S222" s="2" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="T222" s="2" t="s">
         <v>32</v>
@@ -16826,8 +16841,8 @@
       <c r="U222" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V222" s="1" t="s">
-        <v>33</v>
+      <c r="V222" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="223">
@@ -16841,22 +16856,22 @@
         <v>22</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>92</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="H223" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="I223" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="J223" s="2" t="s">
         <v>28</v>
@@ -16886,7 +16901,7 @@
         <v>32</v>
       </c>
       <c r="S223" s="2" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="T223" s="2" t="s">
         <v>32</v>
@@ -16894,8 +16909,8 @@
       <c r="U223" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V223" s="1" t="s">
-        <v>33</v>
+      <c r="V223" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="224">
@@ -16909,22 +16924,22 @@
         <v>22</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>95</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="H224" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="I224" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="J224" s="2" t="s">
         <v>28</v>
@@ -16954,7 +16969,7 @@
         <v>32</v>
       </c>
       <c r="S224" s="2" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="T224" s="2" t="s">
         <v>32</v>
@@ -16962,8 +16977,8 @@
       <c r="U224" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V224" s="1" t="s">
-        <v>33</v>
+      <c r="V224" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="225">
@@ -16977,22 +16992,22 @@
         <v>22</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>99</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="H225" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="I225" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="J225" s="2" t="s">
         <v>28</v>
@@ -17022,7 +17037,7 @@
         <v>32</v>
       </c>
       <c r="S225" s="2" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="T225" s="2" t="s">
         <v>32</v>
@@ -17030,8 +17045,8 @@
       <c r="U225" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V225" s="1" t="s">
-        <v>33</v>
+      <c r="V225" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="226">
@@ -17045,22 +17060,22 @@
         <v>22</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>102</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="G226" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="H226" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="I226" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="J226" s="2" t="s">
         <v>28</v>
@@ -17090,7 +17105,7 @@
         <v>32</v>
       </c>
       <c r="S226" s="2" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="T226" s="2" t="s">
         <v>32</v>
@@ -17098,8 +17113,8 @@
       <c r="U226" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V226" s="1" t="s">
-        <v>33</v>
+      <c r="V226" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="227">
@@ -17113,22 +17128,22 @@
         <v>22</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>106</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="H227" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="I227" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="J227" s="2" t="s">
         <v>28</v>
@@ -17158,7 +17173,7 @@
         <v>32</v>
       </c>
       <c r="S227" s="2" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="T227" s="2" t="s">
         <v>32</v>
@@ -17166,8 +17181,8 @@
       <c r="U227" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V227" s="1" t="s">
-        <v>33</v>
+      <c r="V227" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="228">
@@ -17181,22 +17196,22 @@
         <v>22</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="E228" s="2" t="s">
         <v>110</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="H228" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="I228" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="J228" s="2" t="s">
         <v>28</v>
@@ -17226,7 +17241,7 @@
         <v>32</v>
       </c>
       <c r="S228" s="2" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="T228" s="2" t="s">
         <v>32</v>
@@ -17234,8 +17249,8 @@
       <c r="U228" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V228" s="1" t="s">
-        <v>33</v>
+      <c r="V228" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="229">
@@ -17249,22 +17264,22 @@
         <v>22</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="E229" s="2" t="s">
         <v>113</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="G229" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="H229" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="I229" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="J229" s="2" t="s">
         <v>28</v>
@@ -17294,7 +17309,7 @@
         <v>32</v>
       </c>
       <c r="S229" s="2" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="T229" s="2" t="s">
         <v>32</v>
@@ -17302,8 +17317,8 @@
       <c r="U229" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V229" s="1" t="s">
-        <v>33</v>
+      <c r="V229" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="230">
@@ -17317,22 +17332,22 @@
         <v>22</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="E230" s="2" t="s">
         <v>117</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="H230" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="I230" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="J230" s="2" t="s">
         <v>28</v>
@@ -17362,7 +17377,7 @@
         <v>32</v>
       </c>
       <c r="S230" s="2" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="T230" s="2" t="s">
         <v>32</v>
@@ -17370,8 +17385,8 @@
       <c r="U230" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V230" s="1" t="s">
-        <v>33</v>
+      <c r="V230" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="231">
@@ -17385,22 +17400,22 @@
         <v>22</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="E231" s="2" t="s">
         <v>121</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="G231" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="H231" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="I231" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="J231" s="2" t="s">
         <v>28</v>
@@ -17430,7 +17445,7 @@
         <v>32</v>
       </c>
       <c r="S231" s="2" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="T231" s="2" t="s">
         <v>32</v>
@@ -17438,8 +17453,8 @@
       <c r="U231" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V231" s="1" t="s">
-        <v>33</v>
+      <c r="V231" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="232">
@@ -17453,22 +17468,22 @@
         <v>22</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="E232" s="2" t="s">
         <v>125</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="G232" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="H232" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="I232" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="J232" s="2" t="s">
         <v>28</v>
@@ -17498,7 +17513,7 @@
         <v>32</v>
       </c>
       <c r="S232" s="2" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="T232" s="2" t="s">
         <v>32</v>
@@ -17521,22 +17536,22 @@
         <v>22</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="E233" s="2" t="s">
         <v>129</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="G233" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="H233" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="I233" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="J233" s="2" t="s">
         <v>28</v>
@@ -17566,7 +17581,7 @@
         <v>32</v>
       </c>
       <c r="S233" s="2" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="T233" s="2" t="s">
         <v>32</v>
@@ -17589,22 +17604,22 @@
         <v>22</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="E234" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="G234" s="1" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="H234" s="1" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="I234" s="1" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="J234" s="2" t="s">
         <v>28</v>
@@ -17642,8 +17657,8 @@
       <c r="U234" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V234" s="1" t="s">
-        <v>33</v>
+      <c r="V234" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="235">
@@ -17657,22 +17672,22 @@
         <v>22</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="E235" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="G235" s="1" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="H235" s="1" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="I235" s="1" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="J235" s="2" t="s">
         <v>28</v>
@@ -17687,7 +17702,7 @@
         <v>30</v>
       </c>
       <c r="N235" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O235" s="2" t="s">
         <v>32</v>
@@ -17710,8 +17725,8 @@
       <c r="U235" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V235" s="1" t="s">
-        <v>33</v>
+      <c r="V235" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="236">
@@ -17731,55 +17746,123 @@
         <v>41</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="G236" s="1" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="H236" s="1" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="I236" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="J236" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K236" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L236" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M236" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N236" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="O236" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P236" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q236" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R236" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S236" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T236" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U236" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V236" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="E237" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F237" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="J236" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K236" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L236" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M236" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N236" s="2" t="s">
+      <c r="G237" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="H237" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="O236" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P236" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q236" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R236" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S236" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T236" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U236" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V236" s="1" t="s">
-        <v>33</v>
+      <c r="I237" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="J237" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K237" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L237" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M237" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N237" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="O237" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P237" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q237" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R237" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S237" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T237" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U237" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V237" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-KAZ.xlsx
+++ b/Excel-XLSX/UN-KAZ.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="466">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>O1akuu</t>
+    <t>W9SM3d</t>
   </si>
   <si>
     <t>1993</t>
@@ -1368,43 +1368,52 @@
     <t>238</t>
   </si>
   <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>BDI</t>
+  </si>
+  <si>
     <t>239</t>
   </si>
   <si>
     <t>240</t>
   </si>
   <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>CMR</t>
+  </si>
+  <si>
     <t>241</t>
   </si>
   <si>
-    <t>Jordan</t>
-  </si>
-  <si>
-    <t>JOR</t>
-  </si>
-  <si>
     <t>242</t>
   </si>
   <si>
     <t>243</t>
   </si>
   <si>
-    <t>8019</t>
-  </si>
-  <si>
     <t>244</t>
   </si>
   <si>
+    <t>7865</t>
+  </si>
+  <si>
     <t>245</t>
   </si>
   <si>
+    <t>246</t>
+  </si>
+  <si>
     <t>65511</t>
   </si>
   <si>
-    <t>246</t>
-  </si>
-  <si>
     <t>247</t>
+  </si>
+  <si>
+    <t>248</t>
   </si>
 </sst>
 </file>
@@ -1789,7 +1798,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V248"/>
+  <dimension ref="A1:V249"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -17954,10 +17963,10 @@
         <v>30</v>
       </c>
       <c r="N238" s="2" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="O238" s="2" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="P238" s="2" t="s">
         <v>32</v>
@@ -17998,16 +18007,16 @@
         <v>448</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G239" s="1" t="s">
-        <v>91</v>
+        <v>450</v>
       </c>
       <c r="H239" s="1" t="s">
-        <v>92</v>
+        <v>451</v>
       </c>
       <c r="I239" s="1" t="s">
-        <v>93</v>
+        <v>451</v>
       </c>
       <c r="J239" s="2" t="s">
         <v>28</v>
@@ -18022,7 +18031,7 @@
         <v>30</v>
       </c>
       <c r="N239" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="O239" s="2" t="s">
         <v>45</v>
@@ -18060,22 +18069,22 @@
         <v>22</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="E240" s="2" t="s">
         <v>448</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>223</v>
+        <v>90</v>
       </c>
       <c r="G240" s="1" t="s">
-        <v>418</v>
+        <v>91</v>
       </c>
       <c r="H240" s="1" t="s">
-        <v>419</v>
+        <v>92</v>
       </c>
       <c r="I240" s="1" t="s">
-        <v>419</v>
+        <v>93</v>
       </c>
       <c r="J240" s="2" t="s">
         <v>28</v>
@@ -18090,7 +18099,7 @@
         <v>30</v>
       </c>
       <c r="N240" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="O240" s="2" t="s">
         <v>45</v>
@@ -18128,22 +18137,22 @@
         <v>22</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="E241" s="2" t="s">
         <v>448</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>226</v>
+        <v>137</v>
       </c>
       <c r="G241" s="1" t="s">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="H241" s="1" t="s">
-        <v>439</v>
+        <v>455</v>
       </c>
       <c r="I241" s="1" t="s">
-        <v>439</v>
+        <v>455</v>
       </c>
       <c r="J241" s="2" t="s">
         <v>28</v>
@@ -18161,7 +18170,7 @@
         <v>32</v>
       </c>
       <c r="O241" s="2" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="P241" s="2" t="s">
         <v>32</v>
@@ -18196,22 +18205,22 @@
         <v>22</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="E242" s="2" t="s">
         <v>448</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="G242" s="1" t="s">
-        <v>453</v>
+        <v>418</v>
       </c>
       <c r="H242" s="1" t="s">
-        <v>454</v>
+        <v>419</v>
       </c>
       <c r="I242" s="1" t="s">
-        <v>454</v>
+        <v>419</v>
       </c>
       <c r="J242" s="2" t="s">
         <v>28</v>
@@ -18264,22 +18273,22 @@
         <v>22</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="E243" s="2" t="s">
         <v>448</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>66</v>
+        <v>226</v>
       </c>
       <c r="G243" s="1" t="s">
-        <v>67</v>
+        <v>438</v>
       </c>
       <c r="H243" s="1" t="s">
-        <v>68</v>
+        <v>439</v>
       </c>
       <c r="I243" s="1" t="s">
-        <v>68</v>
+        <v>439</v>
       </c>
       <c r="J243" s="2" t="s">
         <v>28</v>
@@ -18297,7 +18306,7 @@
         <v>32</v>
       </c>
       <c r="O243" s="2" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="P243" s="2" t="s">
         <v>32</v>
@@ -18332,22 +18341,22 @@
         <v>22</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="E244" s="2" t="s">
         <v>448</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="G244" s="1" t="s">
-        <v>184</v>
+        <v>67</v>
       </c>
       <c r="H244" s="1" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="I244" s="1" t="s">
-        <v>186</v>
+        <v>68</v>
       </c>
       <c r="J244" s="2" t="s">
         <v>28</v>
@@ -18365,7 +18374,7 @@
         <v>32</v>
       </c>
       <c r="O244" s="2" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="P244" s="2" t="s">
         <v>32</v>
@@ -18377,7 +18386,7 @@
         <v>32</v>
       </c>
       <c r="S244" s="2" t="s">
-        <v>457</v>
+        <v>32</v>
       </c>
       <c r="T244" s="2" t="s">
         <v>32</v>
@@ -18400,22 +18409,22 @@
         <v>22</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E245" s="2" t="s">
         <v>448</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>123</v>
+        <v>183</v>
       </c>
       <c r="G245" s="1" t="s">
-        <v>124</v>
+        <v>184</v>
       </c>
       <c r="H245" s="1" t="s">
-        <v>125</v>
+        <v>185</v>
       </c>
       <c r="I245" s="1" t="s">
-        <v>125</v>
+        <v>186</v>
       </c>
       <c r="J245" s="2" t="s">
         <v>28</v>
@@ -18430,7 +18439,7 @@
         <v>30</v>
       </c>
       <c r="N245" s="2" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="O245" s="2" t="s">
         <v>32</v>
@@ -18445,7 +18454,7 @@
         <v>32</v>
       </c>
       <c r="S245" s="2" t="s">
-        <v>32</v>
+        <v>460</v>
       </c>
       <c r="T245" s="2" t="s">
         <v>32</v>
@@ -18468,22 +18477,22 @@
         <v>22</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="E246" s="2" t="s">
         <v>448</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="G246" s="1" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="H246" s="1" t="s">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="I246" s="1" t="s">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="J246" s="2" t="s">
         <v>28</v>
@@ -18498,10 +18507,10 @@
         <v>30</v>
       </c>
       <c r="N246" s="2" t="s">
-        <v>460</v>
+        <v>65</v>
       </c>
       <c r="O246" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="P246" s="2" t="s">
         <v>32</v>
@@ -18536,22 +18545,22 @@
         <v>22</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E247" s="2" t="s">
         <v>448</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>353</v>
+        <v>72</v>
       </c>
       <c r="G247" s="1" t="s">
-        <v>354</v>
+        <v>73</v>
       </c>
       <c r="H247" s="1" t="s">
-        <v>355</v>
+        <v>74</v>
       </c>
       <c r="I247" s="1" t="s">
-        <v>355</v>
+        <v>75</v>
       </c>
       <c r="J247" s="2" t="s">
         <v>28</v>
@@ -18566,10 +18575,10 @@
         <v>30</v>
       </c>
       <c r="N247" s="2" t="s">
-        <v>208</v>
+        <v>463</v>
       </c>
       <c r="O247" s="2" t="s">
-        <v>281</v>
+        <v>32</v>
       </c>
       <c r="P247" s="2" t="s">
         <v>32</v>
@@ -18604,60 +18613,128 @@
         <v>22</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="E248" s="2" t="s">
         <v>448</v>
       </c>
       <c r="F248" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="G248" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="H248" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I248" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="J248" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K248" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L248" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M248" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N248" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="O248" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="P248" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q248" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R248" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S248" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T248" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U248" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V248" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="E249" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="F249" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="G248" s="1" t="s">
+      <c r="G249" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="H248" s="1" t="s">
+      <c r="H249" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="I248" s="1" t="s">
+      <c r="I249" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="J248" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K248" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L248" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M248" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N248" s="2" t="s">
+      <c r="J249" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K249" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L249" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M249" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N249" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="O248" s="2" t="s">
+      <c r="O249" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="P248" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q248" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R248" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S248" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T248" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U248" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V248" s="2" t="s">
+      <c r="P249" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q249" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R249" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S249" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T249" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U249" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V249" s="2" t="s">
         <v>32</v>
       </c>
     </row>
